--- a/resource/Curious Freaks Coding Sheet.xlsx
+++ b/resource/Curious Freaks Coding Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repos\java-cheat-sheet\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8748C519-25DF-4B85-82A2-10B041C14090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932C8DBB-03F2-43FB-BE0F-3C4423FDFB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4005,10 +4005,19 @@
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4051,15 +4060,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4281,8 +4281,8 @@
   </sheetPr>
   <dimension ref="A1:G1505"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4296,7 +4296,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="74"/>
@@ -4307,7 +4307,7 @@
       <c r="G1" s="74"/>
     </row>
     <row r="2" spans="1:7" ht="15.6">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="75" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="74"/>
@@ -4318,7 +4318,7 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="15.6">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="76" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="74"/>
@@ -4329,7 +4329,7 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="13.8">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="75" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="74"/>
@@ -4340,7 +4340,7 @@
       <c r="G4" s="74"/>
     </row>
     <row r="5" spans="1:7" ht="15.6">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="76" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="74"/>
@@ -4351,7 +4351,7 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="13.8">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="77" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="74"/>
@@ -4362,18 +4362,18 @@
       <c r="G6" s="74"/>
     </row>
     <row r="7" spans="1:7" ht="13.2">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="77"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="80"/>
     </row>
     <row r="8" spans="1:7" ht="13.2">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="87" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="74"/>
@@ -4381,18 +4381,18 @@
       <c r="D8" s="74"/>
       <c r="E8" s="74"/>
       <c r="F8" s="74"/>
-      <c r="G8" s="85"/>
+      <c r="G8" s="88"/>
     </row>
     <row r="9" spans="1:7" ht="13.2">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
     </row>
     <row r="10" spans="1:7" ht="13.8">
       <c r="A10" s="2"/>
@@ -4404,7 +4404,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" ht="13.2">
-      <c r="A11" s="88" t="s">
+      <c r="A11" s="91" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="74"/>
@@ -5228,7 +5228,7 @@
       <c r="A63" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B63" s="89" t="s">
+      <c r="B63" s="92" t="s">
         <v>111</v>
       </c>
       <c r="C63" s="74"/>
@@ -5736,7 +5736,7 @@
       <c r="B96" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="C96" s="14" t="s">
+      <c r="C96" s="72" t="s">
         <v>172</v>
       </c>
       <c r="D96" s="18" t="s">
@@ -5853,7 +5853,7 @@
       <c r="B104" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C104" s="14" t="s">
+      <c r="C104" s="72" t="s">
         <v>186</v>
       </c>
       <c r="D104" s="15" t="s">
@@ -12733,7 +12733,7 @@
       <c r="G536" s="66"/>
     </row>
     <row r="537" spans="1:7" ht="13.2">
-      <c r="A537" s="90" t="s">
+      <c r="A537" s="93" t="s">
         <v>985</v>
       </c>
       <c r="B537" s="74"/>
@@ -12744,7 +12744,7 @@
       <c r="G537" s="12"/>
     </row>
     <row r="538" spans="1:7" ht="13.2">
-      <c r="A538" s="91" t="s">
+      <c r="A538" s="94" t="s">
         <v>986</v>
       </c>
       <c r="B538" s="74"/>
@@ -12772,12 +12772,12 @@
       <c r="A541" s="68" t="s">
         <v>987</v>
       </c>
-      <c r="B541" s="92" t="s">
+      <c r="B541" s="95" t="s">
         <v>988</v>
       </c>
-      <c r="C541" s="93"/>
-      <c r="D541" s="93"/>
-      <c r="E541" s="94"/>
+      <c r="C541" s="96"/>
+      <c r="D541" s="96"/>
+      <c r="E541" s="97"/>
       <c r="F541" s="69"/>
       <c r="G541" s="69"/>
     </row>
@@ -12785,12 +12785,12 @@
       <c r="A542" s="70" t="s">
         <v>989</v>
       </c>
-      <c r="B542" s="78" t="s">
+      <c r="B542" s="81" t="s">
         <v>990</v>
       </c>
       <c r="C542" s="74"/>
       <c r="D542" s="74"/>
-      <c r="E542" s="79"/>
+      <c r="E542" s="82"/>
       <c r="F542" s="69"/>
       <c r="G542" s="69"/>
     </row>
@@ -12798,17 +12798,17 @@
       <c r="A543" s="71" t="s">
         <v>991</v>
       </c>
-      <c r="B543" s="80" t="s">
+      <c r="B543" s="83" t="s">
         <v>992</v>
       </c>
-      <c r="C543" s="81"/>
-      <c r="D543" s="81"/>
-      <c r="E543" s="82"/>
+      <c r="C543" s="84"/>
+      <c r="D543" s="84"/>
+      <c r="E543" s="85"/>
       <c r="F543" s="69"/>
       <c r="G543" s="69"/>
     </row>
     <row r="544" spans="1:7" ht="13.8">
-      <c r="A544" s="83" t="s">
+      <c r="A544" s="86" t="s">
         <v>993</v>
       </c>
       <c r="B544" s="74"/>
@@ -17625,11 +17625,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:E5"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="B542:E542"/>
@@ -17642,6 +17637,11 @@
     <mergeCell ref="A537:E537"/>
     <mergeCell ref="A538:E538"/>
     <mergeCell ref="B541:E541"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:E5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/resource/Curious Freaks Coding Sheet.xlsx
+++ b/resource/Curious Freaks Coding Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repos\java-cheat-sheet\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932C8DBB-03F2-43FB-BE0F-3C4423FDFB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3719AD-AD70-4DE1-A953-4353C421E45F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4005,19 +4005,10 @@
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4060,6 +4051,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4281,8 +4281,8 @@
   </sheetPr>
   <dimension ref="A1:G1505"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4296,7 +4296,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="74"/>
@@ -4307,7 +4307,7 @@
       <c r="G1" s="74"/>
     </row>
     <row r="2" spans="1:7" ht="15.6">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="96" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="74"/>
@@ -4318,7 +4318,7 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="15.6">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="97" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="74"/>
@@ -4329,7 +4329,7 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="13.8">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="96" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="74"/>
@@ -4340,7 +4340,7 @@
       <c r="G4" s="74"/>
     </row>
     <row r="5" spans="1:7" ht="15.6">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="97" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="74"/>
@@ -4351,7 +4351,7 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="13.8">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="73" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="74"/>
@@ -4362,18 +4362,18 @@
       <c r="G6" s="74"/>
     </row>
     <row r="7" spans="1:7" ht="13.2">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="80"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="77"/>
     </row>
     <row r="8" spans="1:7" ht="13.2">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="84" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="74"/>
@@ -4381,18 +4381,18 @@
       <c r="D8" s="74"/>
       <c r="E8" s="74"/>
       <c r="F8" s="74"/>
-      <c r="G8" s="88"/>
+      <c r="G8" s="85"/>
     </row>
     <row r="9" spans="1:7" ht="13.2">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
     </row>
     <row r="10" spans="1:7" ht="13.8">
       <c r="A10" s="2"/>
@@ -4404,7 +4404,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" ht="13.2">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="88" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="74"/>
@@ -5228,7 +5228,7 @@
       <c r="A63" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B63" s="92" t="s">
+      <c r="B63" s="89" t="s">
         <v>111</v>
       </c>
       <c r="C63" s="74"/>
@@ -5901,7 +5901,7 @@
       <c r="B107" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="C107" s="14" t="s">
+      <c r="C107" s="72" t="s">
         <v>192</v>
       </c>
       <c r="D107" s="39" t="s">
@@ -12733,7 +12733,7 @@
       <c r="G536" s="66"/>
     </row>
     <row r="537" spans="1:7" ht="13.2">
-      <c r="A537" s="93" t="s">
+      <c r="A537" s="90" t="s">
         <v>985</v>
       </c>
       <c r="B537" s="74"/>
@@ -12744,7 +12744,7 @@
       <c r="G537" s="12"/>
     </row>
     <row r="538" spans="1:7" ht="13.2">
-      <c r="A538" s="94" t="s">
+      <c r="A538" s="91" t="s">
         <v>986</v>
       </c>
       <c r="B538" s="74"/>
@@ -12772,12 +12772,12 @@
       <c r="A541" s="68" t="s">
         <v>987</v>
       </c>
-      <c r="B541" s="95" t="s">
+      <c r="B541" s="92" t="s">
         <v>988</v>
       </c>
-      <c r="C541" s="96"/>
-      <c r="D541" s="96"/>
-      <c r="E541" s="97"/>
+      <c r="C541" s="93"/>
+      <c r="D541" s="93"/>
+      <c r="E541" s="94"/>
       <c r="F541" s="69"/>
       <c r="G541" s="69"/>
     </row>
@@ -12785,12 +12785,12 @@
       <c r="A542" s="70" t="s">
         <v>989</v>
       </c>
-      <c r="B542" s="81" t="s">
+      <c r="B542" s="78" t="s">
         <v>990</v>
       </c>
       <c r="C542" s="74"/>
       <c r="D542" s="74"/>
-      <c r="E542" s="82"/>
+      <c r="E542" s="79"/>
       <c r="F542" s="69"/>
       <c r="G542" s="69"/>
     </row>
@@ -12798,17 +12798,17 @@
       <c r="A543" s="71" t="s">
         <v>991</v>
       </c>
-      <c r="B543" s="83" t="s">
+      <c r="B543" s="80" t="s">
         <v>992</v>
       </c>
-      <c r="C543" s="84"/>
-      <c r="D543" s="84"/>
-      <c r="E543" s="85"/>
+      <c r="C543" s="81"/>
+      <c r="D543" s="81"/>
+      <c r="E543" s="82"/>
       <c r="F543" s="69"/>
       <c r="G543" s="69"/>
     </row>
     <row r="544" spans="1:7" ht="13.8">
-      <c r="A544" s="86" t="s">
+      <c r="A544" s="83" t="s">
         <v>993</v>
       </c>
       <c r="B544" s="74"/>
@@ -17625,6 +17625,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:E5"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="B542:E542"/>
@@ -17637,11 +17642,6 @@
     <mergeCell ref="A537:E537"/>
     <mergeCell ref="A538:E538"/>
     <mergeCell ref="B541:E541"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:E5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
